--- a/Apache POI Examples/src/main/resources/datafiles/books.xlsx
+++ b/Apache POI Examples/src/main/resources/datafiles/books.xlsx
@@ -424,9 +424,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.5703125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="25.85546875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
